--- a/06_Python/Features_extraction/Feature_ extraction_script/Data_summary.xlsx
+++ b/06_Python/Features_extraction/Feature_ extraction_script/Data_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="59">
   <si>
     <t>subjectLabel</t>
   </si>
@@ -125,12 +125,6 @@
   </si>
   <si>
     <t>nb_min_acc</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Gender</t>
   </si>
   <si>
     <t>Children_C14</t>
@@ -554,13 +548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN293"/>
+  <dimension ref="A1:AL293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:38">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,19 +666,13 @@
       <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:38">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>169</v>
@@ -794,19 +782,13 @@
       <c r="AL2">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM2">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:38">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>169</v>
@@ -916,19 +898,13 @@
       <c r="AL3">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM3">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:38">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>169</v>
@@ -1038,19 +1014,13 @@
       <c r="AL4">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM4">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:38">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>169</v>
@@ -1160,19 +1130,13 @@
       <c r="AL5">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM5">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:38">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>169</v>
@@ -1282,19 +1246,13 @@
       <c r="AL6">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM6">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:38">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>169</v>
@@ -1404,19 +1362,13 @@
       <c r="AL7">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM7">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN7">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:38">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>169</v>
@@ -1526,19 +1478,13 @@
       <c r="AL8">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM8">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:38">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>169</v>
@@ -1648,19 +1594,13 @@
       <c r="AL9">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM9">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN9">
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:38">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>169</v>
@@ -1770,19 +1710,13 @@
       <c r="AL10">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM10">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN10">
-        <v>1</v>
-      </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:38">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>169</v>
@@ -1892,19 +1826,13 @@
       <c r="AL11">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM11">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN11">
-        <v>1</v>
-      </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:38">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>169</v>
@@ -2014,19 +1942,13 @@
       <c r="AL12">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM12">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN12">
-        <v>1</v>
-      </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:38">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>169</v>
@@ -2136,19 +2058,13 @@
       <c r="AL13">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM13">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN13">
-        <v>1</v>
-      </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:38">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>169</v>
@@ -2258,19 +2174,13 @@
       <c r="AL14">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM14">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN14">
-        <v>1</v>
-      </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:38">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>169</v>
@@ -2380,19 +2290,13 @@
       <c r="AL15">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM15">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN15">
-        <v>1</v>
-      </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:38">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>169</v>
@@ -2502,19 +2406,13 @@
       <c r="AL16">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM16">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN16">
-        <v>1</v>
-      </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:38">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>169</v>
@@ -2624,19 +2522,13 @@
       <c r="AL17">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM17">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN17">
-        <v>1</v>
-      </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:38">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>169</v>
@@ -2746,19 +2638,13 @@
       <c r="AL18">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM18">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:38">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>169</v>
@@ -2868,19 +2754,13 @@
       <c r="AL19">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM19">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:38">
       <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>169</v>
@@ -2990,19 +2870,13 @@
       <c r="AL20">
         <v>0.01</v>
       </c>
-      <c r="AM20">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:38">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>303</v>
@@ -3112,19 +2986,13 @@
       <c r="AL21">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM21">
-        <v>7.4</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:38">
       <c r="A22" s="1">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>303</v>
@@ -3234,19 +3102,13 @@
       <c r="AL22">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM22">
-        <v>7.4</v>
-      </c>
-      <c r="AN22">
-        <v>1</v>
-      </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:38">
       <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>303</v>
@@ -3356,19 +3218,13 @@
       <c r="AL23">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM23">
-        <v>7.4</v>
-      </c>
-      <c r="AN23">
-        <v>1</v>
-      </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:38">
       <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>303</v>
@@ -3478,19 +3334,13 @@
       <c r="AL24">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM24">
-        <v>7.4</v>
-      </c>
-      <c r="AN24">
-        <v>1</v>
-      </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:38">
       <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>303</v>
@@ -3600,19 +3450,13 @@
       <c r="AL25">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM25">
-        <v>7.4</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:38">
       <c r="A26" s="1">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>303</v>
@@ -3722,19 +3566,13 @@
       <c r="AL26">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM26">
-        <v>7.4</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:38">
       <c r="A27" s="1">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>303</v>
@@ -3844,19 +3682,13 @@
       <c r="AL27">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM27">
-        <v>7.4</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:38">
       <c r="A28" s="1">
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>243</v>
@@ -3966,19 +3798,13 @@
       <c r="AL28">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM28">
-        <v>9.1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:38">
       <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>243</v>
@@ -4088,19 +3914,13 @@
       <c r="AL29">
         <v>0.01</v>
       </c>
-      <c r="AM29">
-        <v>9.1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:38">
       <c r="A30" s="1">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>151</v>
@@ -4210,19 +4030,13 @@
       <c r="AL30">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM30">
-        <v>10</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:38">
       <c r="A31" s="1">
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>151</v>
@@ -4332,19 +4146,13 @@
       <c r="AL31">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM31">
-        <v>10</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" spans="1:38">
       <c r="A32" s="1">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>151</v>
@@ -4454,19 +4262,13 @@
       <c r="AL32">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM32">
-        <v>10</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:38">
       <c r="A33" s="1">
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>151</v>
@@ -4576,19 +4378,13 @@
       <c r="AL33">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM33">
-        <v>10</v>
-      </c>
-      <c r="AN33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:38">
       <c r="A34" s="1">
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>151</v>
@@ -4698,19 +4494,13 @@
       <c r="AL34">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM34">
-        <v>10</v>
-      </c>
-      <c r="AN34">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:38">
       <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>151</v>
@@ -4820,19 +4610,13 @@
       <c r="AL35">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM35">
-        <v>10</v>
-      </c>
-      <c r="AN35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:38">
       <c r="A36" s="1">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>151</v>
@@ -4942,19 +4726,13 @@
       <c r="AL36">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM36">
-        <v>10</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:38">
       <c r="A37" s="1">
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>151</v>
@@ -5064,19 +4842,13 @@
       <c r="AL37">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM37">
-        <v>10</v>
-      </c>
-      <c r="AN37">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:38">
       <c r="A38" s="1">
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>151</v>
@@ -5186,19 +4958,13 @@
       <c r="AL38">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM38">
-        <v>10</v>
-      </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:38">
       <c r="A39" s="1">
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>151</v>
@@ -5308,19 +5074,13 @@
       <c r="AL39">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM39">
-        <v>10</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:38">
       <c r="A40" s="1">
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>151</v>
@@ -5430,19 +5190,13 @@
       <c r="AL40">
         <v>0.01</v>
       </c>
-      <c r="AM40">
-        <v>10</v>
-      </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" spans="1:38">
       <c r="A41" s="1">
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>194</v>
@@ -5552,19 +5306,13 @@
       <c r="AL41">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM41">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:40">
+    <row r="42" spans="1:38">
       <c r="A42" s="1">
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>194</v>
@@ -5674,19 +5422,13 @@
       <c r="AL42">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM42">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AN42">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:40">
+    <row r="43" spans="1:38">
       <c r="A43" s="1">
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>194</v>
@@ -5796,19 +5538,13 @@
       <c r="AL43">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM43">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AN43">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:40">
+    <row r="44" spans="1:38">
       <c r="A44" s="1">
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44">
         <v>194</v>
@@ -5918,19 +5654,13 @@
       <c r="AL44">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM44">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:40">
+    <row r="45" spans="1:38">
       <c r="A45" s="1">
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45">
         <v>194</v>
@@ -6040,19 +5770,13 @@
       <c r="AL45">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM45">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:40">
+    <row r="46" spans="1:38">
       <c r="A46" s="1">
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46">
         <v>194</v>
@@ -6162,19 +5886,13 @@
       <c r="AL46">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM46">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AN46">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:40">
+    <row r="47" spans="1:38">
       <c r="A47" s="1">
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47">
         <v>194</v>
@@ -6284,19 +6002,13 @@
       <c r="AL47">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM47">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:40">
+    <row r="48" spans="1:38">
       <c r="A48" s="1">
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48">
         <v>194</v>
@@ -6406,19 +6118,13 @@
       <c r="AL48">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM48">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:40">
+    <row r="49" spans="1:38">
       <c r="A49" s="1">
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C49">
         <v>194</v>
@@ -6528,19 +6234,13 @@
       <c r="AL49">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM49">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:40">
+    <row r="50" spans="1:38">
       <c r="A50" s="1">
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50">
         <v>194</v>
@@ -6650,19 +6350,13 @@
       <c r="AL50">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM50">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AN50">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:40">
+    <row r="51" spans="1:38">
       <c r="A51" s="1">
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51">
         <v>194</v>
@@ -6772,19 +6466,13 @@
       <c r="AL51">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM51">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AN51">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:40">
+    <row r="52" spans="1:38">
       <c r="A52" s="1">
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52">
         <v>194</v>
@@ -6894,19 +6582,13 @@
       <c r="AL52">
         <v>0.005</v>
       </c>
-      <c r="AM52">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AN52">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:40">
+    <row r="53" spans="1:38">
       <c r="A53" s="1">
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C53">
         <v>163</v>
@@ -7016,19 +6698,13 @@
       <c r="AL53">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM53">
-        <v>14</v>
-      </c>
-      <c r="AN53">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:40">
+    <row r="54" spans="1:38">
       <c r="A54" s="1">
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C54">
         <v>163</v>
@@ -7138,19 +6814,13 @@
       <c r="AL54">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM54">
-        <v>14</v>
-      </c>
-      <c r="AN54">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:40">
+    <row r="55" spans="1:38">
       <c r="A55" s="1">
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C55">
         <v>163</v>
@@ -7260,19 +6930,13 @@
       <c r="AL55">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM55">
-        <v>14</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="1:40">
+    <row r="56" spans="1:38">
       <c r="A56" s="1">
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C56">
         <v>163</v>
@@ -7382,19 +7046,13 @@
       <c r="AL56">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM56">
-        <v>14</v>
-      </c>
-      <c r="AN56">
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="1:40">
+    <row r="57" spans="1:38">
       <c r="A57" s="1">
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C57">
         <v>163</v>
@@ -7504,19 +7162,13 @@
       <c r="AL57">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM57">
-        <v>14</v>
-      </c>
-      <c r="AN57">
-        <v>0</v>
-      </c>
     </row>
-    <row r="58" spans="1:40">
+    <row r="58" spans="1:38">
       <c r="A58" s="1">
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C58">
         <v>163</v>
@@ -7626,19 +7278,13 @@
       <c r="AL58">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM58">
-        <v>14</v>
-      </c>
-      <c r="AN58">
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="1:40">
+    <row r="59" spans="1:38">
       <c r="A59" s="1">
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C59">
         <v>163</v>
@@ -7748,19 +7394,13 @@
       <c r="AL59">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM59">
-        <v>14</v>
-      </c>
-      <c r="AN59">
-        <v>0</v>
-      </c>
     </row>
-    <row r="60" spans="1:40">
+    <row r="60" spans="1:38">
       <c r="A60" s="1">
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C60">
         <v>163</v>
@@ -7870,19 +7510,13 @@
       <c r="AL60">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM60">
-        <v>14</v>
-      </c>
-      <c r="AN60">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="1:40">
+    <row r="61" spans="1:38">
       <c r="A61" s="1">
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C61">
         <v>163</v>
@@ -7992,19 +7626,13 @@
       <c r="AL61">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM61">
-        <v>14</v>
-      </c>
-      <c r="AN61">
-        <v>0</v>
-      </c>
     </row>
-    <row r="62" spans="1:40">
+    <row r="62" spans="1:38">
       <c r="A62" s="1">
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C62">
         <v>163</v>
@@ -8114,19 +7742,13 @@
       <c r="AL62">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM62">
-        <v>14</v>
-      </c>
-      <c r="AN62">
-        <v>0</v>
-      </c>
     </row>
-    <row r="63" spans="1:40">
+    <row r="63" spans="1:38">
       <c r="A63" s="1">
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C63">
         <v>163</v>
@@ -8236,19 +7858,13 @@
       <c r="AL63">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM63">
-        <v>14</v>
-      </c>
-      <c r="AN63">
-        <v>0</v>
-      </c>
     </row>
-    <row r="64" spans="1:40">
+    <row r="64" spans="1:38">
       <c r="A64" s="1">
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C64">
         <v>163</v>
@@ -8358,19 +7974,13 @@
       <c r="AL64">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM64">
-        <v>14</v>
-      </c>
-      <c r="AN64">
-        <v>0</v>
-      </c>
     </row>
-    <row r="65" spans="1:40">
+    <row r="65" spans="1:38">
       <c r="A65" s="1">
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C65">
         <v>163</v>
@@ -8480,19 +8090,13 @@
       <c r="AL65">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM65">
-        <v>14</v>
-      </c>
-      <c r="AN65">
-        <v>0</v>
-      </c>
     </row>
-    <row r="66" spans="1:40">
+    <row r="66" spans="1:38">
       <c r="A66" s="1">
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C66">
         <v>163</v>
@@ -8602,19 +8206,13 @@
       <c r="AL66">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM66">
-        <v>14</v>
-      </c>
-      <c r="AN66">
-        <v>0</v>
-      </c>
     </row>
-    <row r="67" spans="1:40">
+    <row r="67" spans="1:38">
       <c r="A67" s="1">
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C67">
         <v>163</v>
@@ -8724,19 +8322,13 @@
       <c r="AL67">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM67">
-        <v>14</v>
-      </c>
-      <c r="AN67">
-        <v>0</v>
-      </c>
     </row>
-    <row r="68" spans="1:40">
+    <row r="68" spans="1:38">
       <c r="A68" s="1">
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C68">
         <v>163</v>
@@ -8846,19 +8438,13 @@
       <c r="AL68">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM68">
-        <v>14</v>
-      </c>
-      <c r="AN68">
-        <v>0</v>
-      </c>
     </row>
-    <row r="69" spans="1:40">
+    <row r="69" spans="1:38">
       <c r="A69" s="1">
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C69">
         <v>163</v>
@@ -8968,19 +8554,13 @@
       <c r="AL69">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM69">
-        <v>14</v>
-      </c>
-      <c r="AN69">
-        <v>0</v>
-      </c>
     </row>
-    <row r="70" spans="1:40">
+    <row r="70" spans="1:38">
       <c r="A70" s="1">
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C70">
         <v>163</v>
@@ -9090,19 +8670,13 @@
       <c r="AL70">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM70">
-        <v>14</v>
-      </c>
-      <c r="AN70">
-        <v>0</v>
-      </c>
     </row>
-    <row r="71" spans="1:40">
+    <row r="71" spans="1:38">
       <c r="A71" s="1">
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C71">
         <v>163</v>
@@ -9212,19 +8786,13 @@
       <c r="AL71">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM71">
-        <v>14</v>
-      </c>
-      <c r="AN71">
-        <v>0</v>
-      </c>
     </row>
-    <row r="72" spans="1:40">
+    <row r="72" spans="1:38">
       <c r="A72" s="1">
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C72">
         <v>163</v>
@@ -9334,19 +8902,13 @@
       <c r="AL72">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM72">
-        <v>14</v>
-      </c>
-      <c r="AN72">
-        <v>0</v>
-      </c>
     </row>
-    <row r="73" spans="1:40">
+    <row r="73" spans="1:38">
       <c r="A73" s="1">
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C73">
         <v>345</v>
@@ -9456,19 +9018,13 @@
       <c r="AL73">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM73">
-        <v>10.3</v>
-      </c>
-      <c r="AN73">
-        <v>0</v>
-      </c>
     </row>
-    <row r="74" spans="1:40">
+    <row r="74" spans="1:38">
       <c r="A74" s="1">
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C74">
         <v>345</v>
@@ -9578,19 +9134,13 @@
       <c r="AL74">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM74">
-        <v>10.3</v>
-      </c>
-      <c r="AN74">
-        <v>0</v>
-      </c>
     </row>
-    <row r="75" spans="1:40">
+    <row r="75" spans="1:38">
       <c r="A75" s="1">
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C75">
         <v>345</v>
@@ -9700,19 +9250,13 @@
       <c r="AL75">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM75">
-        <v>10.3</v>
-      </c>
-      <c r="AN75">
-        <v>0</v>
-      </c>
     </row>
-    <row r="76" spans="1:40">
+    <row r="76" spans="1:38">
       <c r="A76" s="1">
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C76">
         <v>345</v>
@@ -9822,19 +9366,13 @@
       <c r="AL76">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM76">
-        <v>10.3</v>
-      </c>
-      <c r="AN76">
-        <v>0</v>
-      </c>
     </row>
-    <row r="77" spans="1:40">
+    <row r="77" spans="1:38">
       <c r="A77" s="1">
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C77">
         <v>345</v>
@@ -9944,19 +9482,13 @@
       <c r="AL77">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM77">
-        <v>10.3</v>
-      </c>
-      <c r="AN77">
-        <v>0</v>
-      </c>
     </row>
-    <row r="78" spans="1:40">
+    <row r="78" spans="1:38">
       <c r="A78" s="1">
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C78">
         <v>345</v>
@@ -10066,19 +9598,13 @@
       <c r="AL78">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM78">
-        <v>10.3</v>
-      </c>
-      <c r="AN78">
-        <v>0</v>
-      </c>
     </row>
-    <row r="79" spans="1:40">
+    <row r="79" spans="1:38">
       <c r="A79" s="1">
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C79">
         <v>345</v>
@@ -10188,19 +9714,13 @@
       <c r="AL79">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM79">
-        <v>10.3</v>
-      </c>
-      <c r="AN79">
-        <v>0</v>
-      </c>
     </row>
-    <row r="80" spans="1:40">
+    <row r="80" spans="1:38">
       <c r="A80" s="1">
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C80">
         <v>345</v>
@@ -10310,19 +9830,13 @@
       <c r="AL80">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM80">
-        <v>10.3</v>
-      </c>
-      <c r="AN80">
-        <v>0</v>
-      </c>
     </row>
-    <row r="81" spans="1:40">
+    <row r="81" spans="1:38">
       <c r="A81" s="1">
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C81">
         <v>345</v>
@@ -10432,19 +9946,13 @@
       <c r="AL81">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM81">
-        <v>10.3</v>
-      </c>
-      <c r="AN81">
-        <v>0</v>
-      </c>
     </row>
-    <row r="82" spans="1:40">
+    <row r="82" spans="1:38">
       <c r="A82" s="1">
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C82">
         <v>345</v>
@@ -10554,19 +10062,13 @@
       <c r="AL82">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM82">
-        <v>10.3</v>
-      </c>
-      <c r="AN82">
-        <v>0</v>
-      </c>
     </row>
-    <row r="83" spans="1:40">
+    <row r="83" spans="1:38">
       <c r="A83" s="1">
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C83">
         <v>345</v>
@@ -10676,19 +10178,13 @@
       <c r="AL83">
         <v>0.01</v>
       </c>
-      <c r="AM83">
-        <v>10.3</v>
-      </c>
-      <c r="AN83">
-        <v>0</v>
-      </c>
     </row>
-    <row r="84" spans="1:40">
+    <row r="84" spans="1:38">
       <c r="A84" s="1">
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C84">
         <v>367</v>
@@ -10798,19 +10294,13 @@
       <c r="AL84">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM84">
-        <v>10.3</v>
-      </c>
-      <c r="AN84">
-        <v>0</v>
-      </c>
     </row>
-    <row r="85" spans="1:40">
+    <row r="85" spans="1:38">
       <c r="A85" s="1">
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C85">
         <v>367</v>
@@ -10920,19 +10410,13 @@
       <c r="AL85">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM85">
-        <v>10.3</v>
-      </c>
-      <c r="AN85">
-        <v>0</v>
-      </c>
     </row>
-    <row r="86" spans="1:40">
+    <row r="86" spans="1:38">
       <c r="A86" s="1">
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C86">
         <v>367</v>
@@ -11042,19 +10526,13 @@
       <c r="AL86">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM86">
-        <v>10.3</v>
-      </c>
-      <c r="AN86">
-        <v>0</v>
-      </c>
     </row>
-    <row r="87" spans="1:40">
+    <row r="87" spans="1:38">
       <c r="A87" s="1">
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C87">
         <v>367</v>
@@ -11164,19 +10642,13 @@
       <c r="AL87">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM87">
-        <v>10.3</v>
-      </c>
-      <c r="AN87">
-        <v>0</v>
-      </c>
     </row>
-    <row r="88" spans="1:40">
+    <row r="88" spans="1:38">
       <c r="A88" s="1">
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C88">
         <v>367</v>
@@ -11286,19 +10758,13 @@
       <c r="AL88">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM88">
-        <v>10.3</v>
-      </c>
-      <c r="AN88">
-        <v>0</v>
-      </c>
     </row>
-    <row r="89" spans="1:40">
+    <row r="89" spans="1:38">
       <c r="A89" s="1">
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C89">
         <v>367</v>
@@ -11408,19 +10874,13 @@
       <c r="AL89">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM89">
-        <v>10.3</v>
-      </c>
-      <c r="AN89">
-        <v>0</v>
-      </c>
     </row>
-    <row r="90" spans="1:40">
+    <row r="90" spans="1:38">
       <c r="A90" s="1">
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C90">
         <v>367</v>
@@ -11530,19 +10990,13 @@
       <c r="AL90">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM90">
-        <v>10.3</v>
-      </c>
-      <c r="AN90">
-        <v>0</v>
-      </c>
     </row>
-    <row r="91" spans="1:40">
+    <row r="91" spans="1:38">
       <c r="A91" s="1">
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C91">
         <v>367</v>
@@ -11652,19 +11106,13 @@
       <c r="AL91">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM91">
-        <v>10.3</v>
-      </c>
-      <c r="AN91">
-        <v>0</v>
-      </c>
     </row>
-    <row r="92" spans="1:40">
+    <row r="92" spans="1:38">
       <c r="A92" s="1">
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C92">
         <v>367</v>
@@ -11774,19 +11222,13 @@
       <c r="AL92">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM92">
-        <v>10.3</v>
-      </c>
-      <c r="AN92">
-        <v>0</v>
-      </c>
     </row>
-    <row r="93" spans="1:40">
+    <row r="93" spans="1:38">
       <c r="A93" s="1">
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C93">
         <v>367</v>
@@ -11896,19 +11338,13 @@
       <c r="AL93">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM93">
-        <v>10.3</v>
-      </c>
-      <c r="AN93">
-        <v>0</v>
-      </c>
     </row>
-    <row r="94" spans="1:40">
+    <row r="94" spans="1:38">
       <c r="A94" s="1">
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C94">
         <v>212</v>
@@ -12018,19 +11454,13 @@
       <c r="AL94">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM94">
-        <v>10.5</v>
-      </c>
-      <c r="AN94">
-        <v>0</v>
-      </c>
     </row>
-    <row r="95" spans="1:40">
+    <row r="95" spans="1:38">
       <c r="A95" s="1">
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C95">
         <v>212</v>
@@ -12140,19 +11570,13 @@
       <c r="AL95">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM95">
-        <v>10.5</v>
-      </c>
-      <c r="AN95">
-        <v>0</v>
-      </c>
     </row>
-    <row r="96" spans="1:40">
+    <row r="96" spans="1:38">
       <c r="A96" s="1">
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C96">
         <v>212</v>
@@ -12262,19 +11686,13 @@
       <c r="AL96">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM96">
-        <v>10.5</v>
-      </c>
-      <c r="AN96">
-        <v>0</v>
-      </c>
     </row>
-    <row r="97" spans="1:40">
+    <row r="97" spans="1:38">
       <c r="A97" s="1">
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C97">
         <v>212</v>
@@ -12384,19 +11802,13 @@
       <c r="AL97">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM97">
-        <v>10.5</v>
-      </c>
-      <c r="AN97">
-        <v>0</v>
-      </c>
     </row>
-    <row r="98" spans="1:40">
+    <row r="98" spans="1:38">
       <c r="A98" s="1">
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C98">
         <v>212</v>
@@ -12506,19 +11918,13 @@
       <c r="AL98">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM98">
-        <v>10.5</v>
-      </c>
-      <c r="AN98">
-        <v>0</v>
-      </c>
     </row>
-    <row r="99" spans="1:40">
+    <row r="99" spans="1:38">
       <c r="A99" s="1">
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C99">
         <v>212</v>
@@ -12628,19 +12034,13 @@
       <c r="AL99">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM99">
-        <v>10.5</v>
-      </c>
-      <c r="AN99">
-        <v>0</v>
-      </c>
     </row>
-    <row r="100" spans="1:40">
+    <row r="100" spans="1:38">
       <c r="A100" s="1">
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C100">
         <v>212</v>
@@ -12750,19 +12150,13 @@
       <c r="AL100">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM100">
-        <v>10.5</v>
-      </c>
-      <c r="AN100">
-        <v>0</v>
-      </c>
     </row>
-    <row r="101" spans="1:40">
+    <row r="101" spans="1:38">
       <c r="A101" s="1">
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C101">
         <v>212</v>
@@ -12872,19 +12266,13 @@
       <c r="AL101">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM101">
-        <v>10.5</v>
-      </c>
-      <c r="AN101">
-        <v>0</v>
-      </c>
     </row>
-    <row r="102" spans="1:40">
+    <row r="102" spans="1:38">
       <c r="A102" s="1">
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C102">
         <v>212</v>
@@ -12994,19 +12382,13 @@
       <c r="AL102">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM102">
-        <v>10.5</v>
-      </c>
-      <c r="AN102">
-        <v>0</v>
-      </c>
     </row>
-    <row r="103" spans="1:40">
+    <row r="103" spans="1:38">
       <c r="A103" s="1">
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C103">
         <v>212</v>
@@ -13116,19 +12498,13 @@
       <c r="AL103">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM103">
-        <v>10.5</v>
-      </c>
-      <c r="AN103">
-        <v>0</v>
-      </c>
     </row>
-    <row r="104" spans="1:40">
+    <row r="104" spans="1:38">
       <c r="A104" s="1">
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C104">
         <v>212</v>
@@ -13238,19 +12614,13 @@
       <c r="AL104">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM104">
-        <v>10.5</v>
-      </c>
-      <c r="AN104">
-        <v>0</v>
-      </c>
     </row>
-    <row r="105" spans="1:40">
+    <row r="105" spans="1:38">
       <c r="A105" s="1">
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C105">
         <v>212</v>
@@ -13360,19 +12730,13 @@
       <c r="AL105">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM105">
-        <v>10.5</v>
-      </c>
-      <c r="AN105">
-        <v>0</v>
-      </c>
     </row>
-    <row r="106" spans="1:40">
+    <row r="106" spans="1:38">
       <c r="A106" s="1">
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C106">
         <v>212</v>
@@ -13482,19 +12846,13 @@
       <c r="AL106">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM106">
-        <v>10.5</v>
-      </c>
-      <c r="AN106">
-        <v>0</v>
-      </c>
     </row>
-    <row r="107" spans="1:40">
+    <row r="107" spans="1:38">
       <c r="A107" s="1">
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C107">
         <v>212</v>
@@ -13604,19 +12962,13 @@
       <c r="AL107">
         <v>0.01</v>
       </c>
-      <c r="AM107">
-        <v>10.5</v>
-      </c>
-      <c r="AN107">
-        <v>0</v>
-      </c>
     </row>
-    <row r="108" spans="1:40">
+    <row r="108" spans="1:38">
       <c r="A108" s="1">
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C108">
         <v>298</v>
@@ -13726,19 +13078,13 @@
       <c r="AL108">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM108">
-        <v>10.4</v>
-      </c>
-      <c r="AN108">
-        <v>0</v>
-      </c>
     </row>
-    <row r="109" spans="1:40">
+    <row r="109" spans="1:38">
       <c r="A109" s="1">
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C109">
         <v>298</v>
@@ -13848,19 +13194,13 @@
       <c r="AL109">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM109">
-        <v>10.4</v>
-      </c>
-      <c r="AN109">
-        <v>0</v>
-      </c>
     </row>
-    <row r="110" spans="1:40">
+    <row r="110" spans="1:38">
       <c r="A110" s="1">
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C110">
         <v>298</v>
@@ -13970,19 +13310,13 @@
       <c r="AL110">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM110">
-        <v>10.4</v>
-      </c>
-      <c r="AN110">
-        <v>0</v>
-      </c>
     </row>
-    <row r="111" spans="1:40">
+    <row r="111" spans="1:38">
       <c r="A111" s="1">
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C111">
         <v>298</v>
@@ -14092,19 +13426,13 @@
       <c r="AL111">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM111">
-        <v>10.4</v>
-      </c>
-      <c r="AN111">
-        <v>0</v>
-      </c>
     </row>
-    <row r="112" spans="1:40">
+    <row r="112" spans="1:38">
       <c r="A112" s="1">
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C112">
         <v>298</v>
@@ -14214,19 +13542,13 @@
       <c r="AL112">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM112">
-        <v>10.4</v>
-      </c>
-      <c r="AN112">
-        <v>0</v>
-      </c>
     </row>
-    <row r="113" spans="1:40">
+    <row r="113" spans="1:38">
       <c r="A113" s="1">
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C113">
         <v>298</v>
@@ -14336,19 +13658,13 @@
       <c r="AL113">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM113">
-        <v>10.4</v>
-      </c>
-      <c r="AN113">
-        <v>0</v>
-      </c>
     </row>
-    <row r="114" spans="1:40">
+    <row r="114" spans="1:38">
       <c r="A114" s="1">
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C114">
         <v>298</v>
@@ -14458,19 +13774,13 @@
       <c r="AL114">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM114">
-        <v>10.4</v>
-      </c>
-      <c r="AN114">
-        <v>0</v>
-      </c>
     </row>
-    <row r="115" spans="1:40">
+    <row r="115" spans="1:38">
       <c r="A115" s="1">
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C115">
         <v>298</v>
@@ -14580,19 +13890,13 @@
       <c r="AL115">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM115">
-        <v>10.4</v>
-      </c>
-      <c r="AN115">
-        <v>0</v>
-      </c>
     </row>
-    <row r="116" spans="1:40">
+    <row r="116" spans="1:38">
       <c r="A116" s="1">
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C116">
         <v>298</v>
@@ -14702,19 +14006,13 @@
       <c r="AL116">
         <v>0.01</v>
       </c>
-      <c r="AM116">
-        <v>10.4</v>
-      </c>
-      <c r="AN116">
-        <v>0</v>
-      </c>
     </row>
-    <row r="117" spans="1:40">
+    <row r="117" spans="1:38">
       <c r="A117" s="1">
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C117">
         <v>321</v>
@@ -14824,19 +14122,13 @@
       <c r="AL117">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM117">
-        <v>11</v>
-      </c>
-      <c r="AN117">
-        <v>1</v>
-      </c>
     </row>
-    <row r="118" spans="1:40">
+    <row r="118" spans="1:38">
       <c r="A118" s="1">
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C118">
         <v>321</v>
@@ -14946,19 +14238,13 @@
       <c r="AL118">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM118">
-        <v>11</v>
-      </c>
-      <c r="AN118">
-        <v>1</v>
-      </c>
     </row>
-    <row r="119" spans="1:40">
+    <row r="119" spans="1:38">
       <c r="A119" s="1">
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C119">
         <v>321</v>
@@ -15068,19 +14354,13 @@
       <c r="AL119">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM119">
-        <v>11</v>
-      </c>
-      <c r="AN119">
-        <v>1</v>
-      </c>
     </row>
-    <row r="120" spans="1:40">
+    <row r="120" spans="1:38">
       <c r="A120" s="1">
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C120">
         <v>321</v>
@@ -15190,19 +14470,13 @@
       <c r="AL120">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM120">
-        <v>11</v>
-      </c>
-      <c r="AN120">
-        <v>1</v>
-      </c>
     </row>
-    <row r="121" spans="1:40">
+    <row r="121" spans="1:38">
       <c r="A121" s="1">
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C121">
         <v>321</v>
@@ -15312,19 +14586,13 @@
       <c r="AL121">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM121">
-        <v>11</v>
-      </c>
-      <c r="AN121">
-        <v>1</v>
-      </c>
     </row>
-    <row r="122" spans="1:40">
+    <row r="122" spans="1:38">
       <c r="A122" s="1">
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C122">
         <v>321</v>
@@ -15434,19 +14702,13 @@
       <c r="AL122">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM122">
-        <v>11</v>
-      </c>
-      <c r="AN122">
-        <v>1</v>
-      </c>
     </row>
-    <row r="123" spans="1:40">
+    <row r="123" spans="1:38">
       <c r="A123" s="1">
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C123">
         <v>321</v>
@@ -15556,19 +14818,13 @@
       <c r="AL123">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM123">
-        <v>11</v>
-      </c>
-      <c r="AN123">
-        <v>1</v>
-      </c>
     </row>
-    <row r="124" spans="1:40">
+    <row r="124" spans="1:38">
       <c r="A124" s="1">
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C124">
         <v>321</v>
@@ -15678,19 +14934,13 @@
       <c r="AL124">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM124">
-        <v>11</v>
-      </c>
-      <c r="AN124">
-        <v>1</v>
-      </c>
     </row>
-    <row r="125" spans="1:40">
+    <row r="125" spans="1:38">
       <c r="A125" s="1">
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C125">
         <v>321</v>
@@ -15800,19 +15050,13 @@
       <c r="AL125">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM125">
-        <v>11</v>
-      </c>
-      <c r="AN125">
-        <v>1</v>
-      </c>
     </row>
-    <row r="126" spans="1:40">
+    <row r="126" spans="1:38">
       <c r="A126" s="1">
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C126">
         <v>321</v>
@@ -15922,19 +15166,13 @@
       <c r="AL126">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM126">
-        <v>11</v>
-      </c>
-      <c r="AN126">
-        <v>1</v>
-      </c>
     </row>
-    <row r="127" spans="1:40">
+    <row r="127" spans="1:38">
       <c r="A127" s="1">
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C127">
         <v>321</v>
@@ -16044,19 +15282,13 @@
       <c r="AL127">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM127">
-        <v>11</v>
-      </c>
-      <c r="AN127">
-        <v>1</v>
-      </c>
     </row>
-    <row r="128" spans="1:40">
+    <row r="128" spans="1:38">
       <c r="A128" s="1">
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C128">
         <v>321</v>
@@ -16166,19 +15398,13 @@
       <c r="AL128">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM128">
-        <v>11</v>
-      </c>
-      <c r="AN128">
-        <v>1</v>
-      </c>
     </row>
-    <row r="129" spans="1:40">
+    <row r="129" spans="1:38">
       <c r="A129" s="1">
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C129">
         <v>321</v>
@@ -16288,19 +15514,13 @@
       <c r="AL129">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM129">
-        <v>11</v>
-      </c>
-      <c r="AN129">
-        <v>1</v>
-      </c>
     </row>
-    <row r="130" spans="1:40">
+    <row r="130" spans="1:38">
       <c r="A130" s="1">
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C130">
         <v>321</v>
@@ -16410,19 +15630,13 @@
       <c r="AL130">
         <v>0.01</v>
       </c>
-      <c r="AM130">
-        <v>11</v>
-      </c>
-      <c r="AN130">
-        <v>1</v>
-      </c>
     </row>
-    <row r="131" spans="1:40">
+    <row r="131" spans="1:38">
       <c r="A131" s="1">
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C131">
         <v>274</v>
@@ -16532,19 +15746,13 @@
       <c r="AL131">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM131">
-        <v>9.9</v>
-      </c>
-      <c r="AN131">
-        <v>1</v>
-      </c>
     </row>
-    <row r="132" spans="1:40">
+    <row r="132" spans="1:38">
       <c r="A132" s="1">
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C132">
         <v>274</v>
@@ -16654,19 +15862,13 @@
       <c r="AL132">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM132">
-        <v>9.9</v>
-      </c>
-      <c r="AN132">
-        <v>1</v>
-      </c>
     </row>
-    <row r="133" spans="1:40">
+    <row r="133" spans="1:38">
       <c r="A133" s="1">
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C133">
         <v>274</v>
@@ -16776,19 +15978,13 @@
       <c r="AL133">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM133">
-        <v>9.9</v>
-      </c>
-      <c r="AN133">
-        <v>1</v>
-      </c>
     </row>
-    <row r="134" spans="1:40">
+    <row r="134" spans="1:38">
       <c r="A134" s="1">
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C134">
         <v>274</v>
@@ -16898,19 +16094,13 @@
       <c r="AL134">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM134">
-        <v>9.9</v>
-      </c>
-      <c r="AN134">
-        <v>1</v>
-      </c>
     </row>
-    <row r="135" spans="1:40">
+    <row r="135" spans="1:38">
       <c r="A135" s="1">
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C135">
         <v>274</v>
@@ -17020,19 +16210,13 @@
       <c r="AL135">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM135">
-        <v>9.9</v>
-      </c>
-      <c r="AN135">
-        <v>1</v>
-      </c>
     </row>
-    <row r="136" spans="1:40">
+    <row r="136" spans="1:38">
       <c r="A136" s="1">
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C136">
         <v>274</v>
@@ -17142,19 +16326,13 @@
       <c r="AL136">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM136">
-        <v>9.9</v>
-      </c>
-      <c r="AN136">
-        <v>1</v>
-      </c>
     </row>
-    <row r="137" spans="1:40">
+    <row r="137" spans="1:38">
       <c r="A137" s="1">
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C137">
         <v>274</v>
@@ -17264,19 +16442,13 @@
       <c r="AL137">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM137">
-        <v>9.9</v>
-      </c>
-      <c r="AN137">
-        <v>1</v>
-      </c>
     </row>
-    <row r="138" spans="1:40">
+    <row r="138" spans="1:38">
       <c r="A138" s="1">
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C138">
         <v>274</v>
@@ -17386,19 +16558,13 @@
       <c r="AL138">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM138">
-        <v>9.9</v>
-      </c>
-      <c r="AN138">
-        <v>1</v>
-      </c>
     </row>
-    <row r="139" spans="1:40">
+    <row r="139" spans="1:38">
       <c r="A139" s="1">
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C139">
         <v>274</v>
@@ -17508,19 +16674,13 @@
       <c r="AL139">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM139">
-        <v>9.9</v>
-      </c>
-      <c r="AN139">
-        <v>1</v>
-      </c>
     </row>
-    <row r="140" spans="1:40">
+    <row r="140" spans="1:38">
       <c r="A140" s="1">
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C140">
         <v>274</v>
@@ -17630,19 +16790,13 @@
       <c r="AL140">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM140">
-        <v>9.9</v>
-      </c>
-      <c r="AN140">
-        <v>1</v>
-      </c>
     </row>
-    <row r="141" spans="1:40">
+    <row r="141" spans="1:38">
       <c r="A141" s="1">
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C141">
         <v>274</v>
@@ -17752,19 +16906,13 @@
       <c r="AL141">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM141">
-        <v>9.9</v>
-      </c>
-      <c r="AN141">
-        <v>1</v>
-      </c>
     </row>
-    <row r="142" spans="1:40">
+    <row r="142" spans="1:38">
       <c r="A142" s="1">
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C142">
         <v>274</v>
@@ -17874,19 +17022,13 @@
       <c r="AL142">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM142">
-        <v>9.9</v>
-      </c>
-      <c r="AN142">
-        <v>1</v>
-      </c>
     </row>
-    <row r="143" spans="1:40">
+    <row r="143" spans="1:38">
       <c r="A143" s="1">
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C143">
         <v>274</v>
@@ -17996,19 +17138,13 @@
       <c r="AL143">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM143">
-        <v>9.9</v>
-      </c>
-      <c r="AN143">
-        <v>1</v>
-      </c>
     </row>
-    <row r="144" spans="1:40">
+    <row r="144" spans="1:38">
       <c r="A144" s="1">
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C144">
         <v>274</v>
@@ -18118,19 +17254,13 @@
       <c r="AL144">
         <v>0.01</v>
       </c>
-      <c r="AM144">
-        <v>9.9</v>
-      </c>
-      <c r="AN144">
-        <v>1</v>
-      </c>
     </row>
-    <row r="145" spans="1:40">
+    <row r="145" spans="1:38">
       <c r="A145" s="1">
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C145">
         <v>243</v>
@@ -18240,19 +17370,13 @@
       <c r="AL145">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM145">
-        <v>10.2</v>
-      </c>
-      <c r="AN145">
-        <v>0</v>
-      </c>
     </row>
-    <row r="146" spans="1:40">
+    <row r="146" spans="1:38">
       <c r="A146" s="1">
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C146">
         <v>243</v>
@@ -18362,19 +17486,13 @@
       <c r="AL146">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM146">
-        <v>10.2</v>
-      </c>
-      <c r="AN146">
-        <v>0</v>
-      </c>
     </row>
-    <row r="147" spans="1:40">
+    <row r="147" spans="1:38">
       <c r="A147" s="1">
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C147">
         <v>243</v>
@@ -18484,19 +17602,13 @@
       <c r="AL147">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM147">
-        <v>10.2</v>
-      </c>
-      <c r="AN147">
-        <v>0</v>
-      </c>
     </row>
-    <row r="148" spans="1:40">
+    <row r="148" spans="1:38">
       <c r="A148" s="1">
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C148">
         <v>243</v>
@@ -18606,19 +17718,13 @@
       <c r="AL148">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM148">
-        <v>10.2</v>
-      </c>
-      <c r="AN148">
-        <v>0</v>
-      </c>
     </row>
-    <row r="149" spans="1:40">
+    <row r="149" spans="1:38">
       <c r="A149" s="1">
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C149">
         <v>243</v>
@@ -18728,19 +17834,13 @@
       <c r="AL149">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM149">
-        <v>10.2</v>
-      </c>
-      <c r="AN149">
-        <v>0</v>
-      </c>
     </row>
-    <row r="150" spans="1:40">
+    <row r="150" spans="1:38">
       <c r="A150" s="1">
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C150">
         <v>243</v>
@@ -18850,19 +17950,13 @@
       <c r="AL150">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM150">
-        <v>10.2</v>
-      </c>
-      <c r="AN150">
-        <v>0</v>
-      </c>
     </row>
-    <row r="151" spans="1:40">
+    <row r="151" spans="1:38">
       <c r="A151" s="1">
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C151">
         <v>243</v>
@@ -18972,19 +18066,13 @@
       <c r="AL151">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM151">
-        <v>10.2</v>
-      </c>
-      <c r="AN151">
-        <v>0</v>
-      </c>
     </row>
-    <row r="152" spans="1:40">
+    <row r="152" spans="1:38">
       <c r="A152" s="1">
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C152">
         <v>243</v>
@@ -19094,19 +18182,13 @@
       <c r="AL152">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM152">
-        <v>10.2</v>
-      </c>
-      <c r="AN152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="153" spans="1:40">
+    <row r="153" spans="1:38">
       <c r="A153" s="1">
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C153">
         <v>243</v>
@@ -19216,19 +18298,13 @@
       <c r="AL153">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM153">
-        <v>10.2</v>
-      </c>
-      <c r="AN153">
-        <v>0</v>
-      </c>
     </row>
-    <row r="154" spans="1:40">
+    <row r="154" spans="1:38">
       <c r="A154" s="1">
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C154">
         <v>243</v>
@@ -19338,19 +18414,13 @@
       <c r="AL154">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM154">
-        <v>10.2</v>
-      </c>
-      <c r="AN154">
-        <v>0</v>
-      </c>
     </row>
-    <row r="155" spans="1:40">
+    <row r="155" spans="1:38">
       <c r="A155" s="1">
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C155">
         <v>393</v>
@@ -19460,19 +18530,13 @@
       <c r="AL155">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM155">
-        <v>10.8</v>
-      </c>
-      <c r="AN155">
-        <v>0</v>
-      </c>
     </row>
-    <row r="156" spans="1:40">
+    <row r="156" spans="1:38">
       <c r="A156" s="1">
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C156">
         <v>393</v>
@@ -19582,19 +18646,13 @@
       <c r="AL156">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM156">
-        <v>10.8</v>
-      </c>
-      <c r="AN156">
-        <v>0</v>
-      </c>
     </row>
-    <row r="157" spans="1:40">
+    <row r="157" spans="1:38">
       <c r="A157" s="1">
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C157">
         <v>393</v>
@@ -19704,19 +18762,13 @@
       <c r="AL157">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM157">
-        <v>10.8</v>
-      </c>
-      <c r="AN157">
-        <v>0</v>
-      </c>
     </row>
-    <row r="158" spans="1:40">
+    <row r="158" spans="1:38">
       <c r="A158" s="1">
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C158">
         <v>393</v>
@@ -19826,19 +18878,13 @@
       <c r="AL158">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM158">
-        <v>10.8</v>
-      </c>
-      <c r="AN158">
-        <v>0</v>
-      </c>
     </row>
-    <row r="159" spans="1:40">
+    <row r="159" spans="1:38">
       <c r="A159" s="1">
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C159">
         <v>393</v>
@@ -19948,19 +18994,13 @@
       <c r="AL159">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM159">
-        <v>10.8</v>
-      </c>
-      <c r="AN159">
-        <v>0</v>
-      </c>
     </row>
-    <row r="160" spans="1:40">
+    <row r="160" spans="1:38">
       <c r="A160" s="1">
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C160">
         <v>393</v>
@@ -20070,19 +19110,13 @@
       <c r="AL160">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM160">
-        <v>10.8</v>
-      </c>
-      <c r="AN160">
-        <v>0</v>
-      </c>
     </row>
-    <row r="161" spans="1:40">
+    <row r="161" spans="1:38">
       <c r="A161" s="1">
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C161">
         <v>393</v>
@@ -20192,19 +19226,13 @@
       <c r="AL161">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM161">
-        <v>10.8</v>
-      </c>
-      <c r="AN161">
-        <v>0</v>
-      </c>
     </row>
-    <row r="162" spans="1:40">
+    <row r="162" spans="1:38">
       <c r="A162" s="1">
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C162">
         <v>393</v>
@@ -20314,19 +19342,13 @@
       <c r="AL162">
         <v>0.005</v>
       </c>
-      <c r="AM162">
-        <v>10.8</v>
-      </c>
-      <c r="AN162">
-        <v>0</v>
-      </c>
     </row>
-    <row r="163" spans="1:40">
+    <row r="163" spans="1:38">
       <c r="A163" s="1">
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C163">
         <v>207</v>
@@ -20436,19 +19458,13 @@
       <c r="AL163">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM163">
-        <v>8.9</v>
-      </c>
-      <c r="AN163">
-        <v>0</v>
-      </c>
     </row>
-    <row r="164" spans="1:40">
+    <row r="164" spans="1:38">
       <c r="A164" s="1">
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C164">
         <v>207</v>
@@ -20558,19 +19574,13 @@
       <c r="AL164">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM164">
-        <v>8.9</v>
-      </c>
-      <c r="AN164">
-        <v>0</v>
-      </c>
     </row>
-    <row r="165" spans="1:40">
+    <row r="165" spans="1:38">
       <c r="A165" s="1">
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C165">
         <v>207</v>
@@ -20680,19 +19690,13 @@
       <c r="AL165">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM165">
-        <v>8.9</v>
-      </c>
-      <c r="AN165">
-        <v>0</v>
-      </c>
     </row>
-    <row r="166" spans="1:40">
+    <row r="166" spans="1:38">
       <c r="A166" s="1">
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C166">
         <v>207</v>
@@ -20802,19 +19806,13 @@
       <c r="AL166">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM166">
-        <v>8.9</v>
-      </c>
-      <c r="AN166">
-        <v>0</v>
-      </c>
     </row>
-    <row r="167" spans="1:40">
+    <row r="167" spans="1:38">
       <c r="A167" s="1">
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C167">
         <v>207</v>
@@ -20924,19 +19922,13 @@
       <c r="AL167">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM167">
-        <v>8.9</v>
-      </c>
-      <c r="AN167">
-        <v>0</v>
-      </c>
     </row>
-    <row r="168" spans="1:40">
+    <row r="168" spans="1:38">
       <c r="A168" s="1">
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C168">
         <v>207</v>
@@ -21046,19 +20038,13 @@
       <c r="AL168">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM168">
-        <v>8.9</v>
-      </c>
-      <c r="AN168">
-        <v>0</v>
-      </c>
     </row>
-    <row r="169" spans="1:40">
+    <row r="169" spans="1:38">
       <c r="A169" s="1">
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C169">
         <v>207</v>
@@ -21168,19 +20154,13 @@
       <c r="AL169">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM169">
-        <v>8.9</v>
-      </c>
-      <c r="AN169">
-        <v>0</v>
-      </c>
     </row>
-    <row r="170" spans="1:40">
+    <row r="170" spans="1:38">
       <c r="A170" s="1">
         <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C170">
         <v>207</v>
@@ -21290,19 +20270,13 @@
       <c r="AL170">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM170">
-        <v>8.9</v>
-      </c>
-      <c r="AN170">
-        <v>0</v>
-      </c>
     </row>
-    <row r="171" spans="1:40">
+    <row r="171" spans="1:38">
       <c r="A171" s="1">
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C171">
         <v>207</v>
@@ -21412,19 +20386,13 @@
       <c r="AL171">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM171">
-        <v>8.9</v>
-      </c>
-      <c r="AN171">
-        <v>0</v>
-      </c>
     </row>
-    <row r="172" spans="1:40">
+    <row r="172" spans="1:38">
       <c r="A172" s="1">
         <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C172">
         <v>207</v>
@@ -21534,19 +20502,13 @@
       <c r="AL172">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM172">
-        <v>8.9</v>
-      </c>
-      <c r="AN172">
-        <v>0</v>
-      </c>
     </row>
-    <row r="173" spans="1:40">
+    <row r="173" spans="1:38">
       <c r="A173" s="1">
         <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C173">
         <v>207</v>
@@ -21656,19 +20618,13 @@
       <c r="AL173">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM173">
-        <v>8.9</v>
-      </c>
-      <c r="AN173">
-        <v>0</v>
-      </c>
     </row>
-    <row r="174" spans="1:40">
+    <row r="174" spans="1:38">
       <c r="A174" s="1">
         <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C174">
         <v>207</v>
@@ -21778,19 +20734,13 @@
       <c r="AL174">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM174">
-        <v>8.9</v>
-      </c>
-      <c r="AN174">
-        <v>0</v>
-      </c>
     </row>
-    <row r="175" spans="1:40">
+    <row r="175" spans="1:38">
       <c r="A175" s="1">
         <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C175">
         <v>207</v>
@@ -21900,19 +20850,13 @@
       <c r="AL175">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM175">
-        <v>8.9</v>
-      </c>
-      <c r="AN175">
-        <v>0</v>
-      </c>
     </row>
-    <row r="176" spans="1:40">
+    <row r="176" spans="1:38">
       <c r="A176" s="1">
         <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C176">
         <v>207</v>
@@ -22022,19 +20966,13 @@
       <c r="AL176">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM176">
-        <v>8.9</v>
-      </c>
-      <c r="AN176">
-        <v>0</v>
-      </c>
     </row>
-    <row r="177" spans="1:40">
+    <row r="177" spans="1:38">
       <c r="A177" s="1">
         <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C177">
         <v>207</v>
@@ -22144,19 +21082,13 @@
       <c r="AL177">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM177">
-        <v>8.9</v>
-      </c>
-      <c r="AN177">
-        <v>0</v>
-      </c>
     </row>
-    <row r="178" spans="1:40">
+    <row r="178" spans="1:38">
       <c r="A178" s="1">
         <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C178">
         <v>207</v>
@@ -22266,19 +21198,13 @@
       <c r="AL178">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM178">
-        <v>8.9</v>
-      </c>
-      <c r="AN178">
-        <v>0</v>
-      </c>
     </row>
-    <row r="179" spans="1:40">
+    <row r="179" spans="1:38">
       <c r="A179" s="1">
         <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C179">
         <v>207</v>
@@ -22388,19 +21314,13 @@
       <c r="AL179">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM179">
-        <v>8.9</v>
-      </c>
-      <c r="AN179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="180" spans="1:40">
+    <row r="180" spans="1:38">
       <c r="A180" s="1">
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C180">
         <v>207</v>
@@ -22510,19 +21430,13 @@
       <c r="AL180">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM180">
-        <v>8.9</v>
-      </c>
-      <c r="AN180">
-        <v>0</v>
-      </c>
     </row>
-    <row r="181" spans="1:40">
+    <row r="181" spans="1:38">
       <c r="A181" s="1">
         <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C181">
         <v>207</v>
@@ -22632,19 +21546,13 @@
       <c r="AL181">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM181">
-        <v>8.9</v>
-      </c>
-      <c r="AN181">
-        <v>0</v>
-      </c>
     </row>
-    <row r="182" spans="1:40">
+    <row r="182" spans="1:38">
       <c r="A182" s="1">
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C182">
         <v>207</v>
@@ -22754,19 +21662,13 @@
       <c r="AL182">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM182">
-        <v>8.9</v>
-      </c>
-      <c r="AN182">
-        <v>0</v>
-      </c>
     </row>
-    <row r="183" spans="1:40">
+    <row r="183" spans="1:38">
       <c r="A183" s="1">
         <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C183">
         <v>207</v>
@@ -22876,19 +21778,13 @@
       <c r="AL183">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM183">
-        <v>8.9</v>
-      </c>
-      <c r="AN183">
-        <v>0</v>
-      </c>
     </row>
-    <row r="184" spans="1:40">
+    <row r="184" spans="1:38">
       <c r="A184" s="1">
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C184">
         <v>207</v>
@@ -22998,19 +21894,13 @@
       <c r="AL184">
         <v>0.005</v>
       </c>
-      <c r="AM184">
-        <v>8.9</v>
-      </c>
-      <c r="AN184">
-        <v>0</v>
-      </c>
     </row>
-    <row r="185" spans="1:40">
+    <row r="185" spans="1:38">
       <c r="A185" s="1">
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C185">
         <v>96</v>
@@ -23120,19 +22010,13 @@
       <c r="AL185">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM185">
-        <v>7.9</v>
-      </c>
-      <c r="AN185">
-        <v>0</v>
-      </c>
     </row>
-    <row r="186" spans="1:40">
+    <row r="186" spans="1:38">
       <c r="A186" s="1">
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C186">
         <v>96</v>
@@ -23242,19 +22126,13 @@
       <c r="AL186">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM186">
-        <v>7.9</v>
-      </c>
-      <c r="AN186">
-        <v>0</v>
-      </c>
     </row>
-    <row r="187" spans="1:40">
+    <row r="187" spans="1:38">
       <c r="A187" s="1">
         <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C187">
         <v>96</v>
@@ -23364,19 +22242,13 @@
       <c r="AL187">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM187">
-        <v>7.9</v>
-      </c>
-      <c r="AN187">
-        <v>0</v>
-      </c>
     </row>
-    <row r="188" spans="1:40">
+    <row r="188" spans="1:38">
       <c r="A188" s="1">
         <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C188">
         <v>96</v>
@@ -23486,19 +22358,13 @@
       <c r="AL188">
         <v>0.005</v>
       </c>
-      <c r="AM188">
-        <v>7.9</v>
-      </c>
-      <c r="AN188">
-        <v>0</v>
-      </c>
     </row>
-    <row r="189" spans="1:40">
+    <row r="189" spans="1:38">
       <c r="A189" s="1">
         <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C189">
         <v>98</v>
@@ -23608,19 +22474,13 @@
       <c r="AL189">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM189">
-        <v>7.3</v>
-      </c>
-      <c r="AN189">
-        <v>0</v>
-      </c>
     </row>
-    <row r="190" spans="1:40">
+    <row r="190" spans="1:38">
       <c r="A190" s="1">
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C190">
         <v>98</v>
@@ -23730,19 +22590,13 @@
       <c r="AL190">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM190">
-        <v>7.3</v>
-      </c>
-      <c r="AN190">
-        <v>0</v>
-      </c>
     </row>
-    <row r="191" spans="1:40">
+    <row r="191" spans="1:38">
       <c r="A191" s="1">
         <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C191">
         <v>98</v>
@@ -23852,19 +22706,13 @@
       <c r="AL191">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM191">
-        <v>7.3</v>
-      </c>
-      <c r="AN191">
-        <v>0</v>
-      </c>
     </row>
-    <row r="192" spans="1:40">
+    <row r="192" spans="1:38">
       <c r="A192" s="1">
         <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C192">
         <v>98</v>
@@ -23974,19 +22822,13 @@
       <c r="AL192">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM192">
-        <v>7.3</v>
-      </c>
-      <c r="AN192">
-        <v>0</v>
-      </c>
     </row>
-    <row r="193" spans="1:40">
+    <row r="193" spans="1:38">
       <c r="A193" s="1">
         <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C193">
         <v>98</v>
@@ -24096,19 +22938,13 @@
       <c r="AL193">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM193">
-        <v>7.3</v>
-      </c>
-      <c r="AN193">
-        <v>0</v>
-      </c>
     </row>
-    <row r="194" spans="1:40">
+    <row r="194" spans="1:38">
       <c r="A194" s="1">
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C194">
         <v>98</v>
@@ -24218,19 +23054,13 @@
       <c r="AL194">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM194">
-        <v>7.3</v>
-      </c>
-      <c r="AN194">
-        <v>0</v>
-      </c>
     </row>
-    <row r="195" spans="1:40">
+    <row r="195" spans="1:38">
       <c r="A195" s="1">
         <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C195">
         <v>98</v>
@@ -24340,19 +23170,13 @@
       <c r="AL195">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM195">
-        <v>7.3</v>
-      </c>
-      <c r="AN195">
-        <v>0</v>
-      </c>
     </row>
-    <row r="196" spans="1:40">
+    <row r="196" spans="1:38">
       <c r="A196" s="1">
         <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C196">
         <v>98</v>
@@ -24462,19 +23286,13 @@
       <c r="AL196">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM196">
-        <v>7.3</v>
-      </c>
-      <c r="AN196">
-        <v>0</v>
-      </c>
     </row>
-    <row r="197" spans="1:40">
+    <row r="197" spans="1:38">
       <c r="A197" s="1">
         <v>0</v>
       </c>
       <c r="B197" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C197">
         <v>98</v>
@@ -24584,19 +23402,13 @@
       <c r="AL197">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM197">
-        <v>7.3</v>
-      </c>
-      <c r="AN197">
-        <v>0</v>
-      </c>
     </row>
-    <row r="198" spans="1:40">
+    <row r="198" spans="1:38">
       <c r="A198" s="1">
         <v>0</v>
       </c>
       <c r="B198" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C198">
         <v>98</v>
@@ -24706,19 +23518,13 @@
       <c r="AL198">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM198">
-        <v>7.3</v>
-      </c>
-      <c r="AN198">
-        <v>0</v>
-      </c>
     </row>
-    <row r="199" spans="1:40">
+    <row r="199" spans="1:38">
       <c r="A199" s="1">
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C199">
         <v>98</v>
@@ -24828,19 +23634,13 @@
       <c r="AL199">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM199">
-        <v>7.3</v>
-      </c>
-      <c r="AN199">
-        <v>0</v>
-      </c>
     </row>
-    <row r="200" spans="1:40">
+    <row r="200" spans="1:38">
       <c r="A200" s="1">
         <v>0</v>
       </c>
       <c r="B200" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C200">
         <v>98</v>
@@ -24950,19 +23750,13 @@
       <c r="AL200">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM200">
-        <v>7.3</v>
-      </c>
-      <c r="AN200">
-        <v>0</v>
-      </c>
     </row>
-    <row r="201" spans="1:40">
+    <row r="201" spans="1:38">
       <c r="A201" s="1">
         <v>0</v>
       </c>
       <c r="B201" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C201">
         <v>98</v>
@@ -25072,19 +23866,13 @@
       <c r="AL201">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM201">
-        <v>7.3</v>
-      </c>
-      <c r="AN201">
-        <v>0</v>
-      </c>
     </row>
-    <row r="202" spans="1:40">
+    <row r="202" spans="1:38">
       <c r="A202" s="1">
         <v>0</v>
       </c>
       <c r="B202" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C202">
         <v>98</v>
@@ -25194,19 +23982,13 @@
       <c r="AL202">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM202">
-        <v>7.3</v>
-      </c>
-      <c r="AN202">
-        <v>0</v>
-      </c>
     </row>
-    <row r="203" spans="1:40">
+    <row r="203" spans="1:38">
       <c r="A203" s="1">
         <v>0</v>
       </c>
       <c r="B203" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C203">
         <v>98</v>
@@ -25316,19 +24098,13 @@
       <c r="AL203">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM203">
-        <v>7.3</v>
-      </c>
-      <c r="AN203">
-        <v>0</v>
-      </c>
     </row>
-    <row r="204" spans="1:40">
+    <row r="204" spans="1:38">
       <c r="A204" s="1">
         <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C204">
         <v>98</v>
@@ -25438,19 +24214,13 @@
       <c r="AL204">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM204">
-        <v>7.3</v>
-      </c>
-      <c r="AN204">
-        <v>0</v>
-      </c>
     </row>
-    <row r="205" spans="1:40">
+    <row r="205" spans="1:38">
       <c r="A205" s="1">
         <v>0</v>
       </c>
       <c r="B205" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C205">
         <v>98</v>
@@ -25560,19 +24330,13 @@
       <c r="AL205">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM205">
-        <v>7.3</v>
-      </c>
-      <c r="AN205">
-        <v>0</v>
-      </c>
     </row>
-    <row r="206" spans="1:40">
+    <row r="206" spans="1:38">
       <c r="A206" s="1">
         <v>0</v>
       </c>
       <c r="B206" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C206">
         <v>98</v>
@@ -25682,19 +24446,13 @@
       <c r="AL206">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM206">
-        <v>7.3</v>
-      </c>
-      <c r="AN206">
-        <v>0</v>
-      </c>
     </row>
-    <row r="207" spans="1:40">
+    <row r="207" spans="1:38">
       <c r="A207" s="1">
         <v>0</v>
       </c>
       <c r="B207" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C207">
         <v>98</v>
@@ -25804,19 +24562,13 @@
       <c r="AL207">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM207">
-        <v>7.3</v>
-      </c>
-      <c r="AN207">
-        <v>0</v>
-      </c>
     </row>
-    <row r="208" spans="1:40">
+    <row r="208" spans="1:38">
       <c r="A208" s="1">
         <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C208">
         <v>98</v>
@@ -25926,19 +24678,13 @@
       <c r="AL208">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM208">
-        <v>7.3</v>
-      </c>
-      <c r="AN208">
-        <v>0</v>
-      </c>
     </row>
-    <row r="209" spans="1:40">
+    <row r="209" spans="1:38">
       <c r="A209" s="1">
         <v>0</v>
       </c>
       <c r="B209" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C209">
         <v>105</v>
@@ -26048,19 +24794,13 @@
       <c r="AL209">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM209">
-        <v>7.5</v>
-      </c>
-      <c r="AN209">
-        <v>0</v>
-      </c>
     </row>
-    <row r="210" spans="1:40">
+    <row r="210" spans="1:38">
       <c r="A210" s="1">
         <v>0</v>
       </c>
       <c r="B210" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C210">
         <v>105</v>
@@ -26170,19 +24910,13 @@
       <c r="AL210">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM210">
-        <v>7.5</v>
-      </c>
-      <c r="AN210">
-        <v>0</v>
-      </c>
     </row>
-    <row r="211" spans="1:40">
+    <row r="211" spans="1:38">
       <c r="A211" s="1">
         <v>0</v>
       </c>
       <c r="B211" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C211">
         <v>105</v>
@@ -26292,19 +25026,13 @@
       <c r="AL211">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM211">
-        <v>7.5</v>
-      </c>
-      <c r="AN211">
-        <v>0</v>
-      </c>
     </row>
-    <row r="212" spans="1:40">
+    <row r="212" spans="1:38">
       <c r="A212" s="1">
         <v>0</v>
       </c>
       <c r="B212" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C212">
         <v>105</v>
@@ -26414,19 +25142,13 @@
       <c r="AL212">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM212">
-        <v>7.5</v>
-      </c>
-      <c r="AN212">
-        <v>0</v>
-      </c>
     </row>
-    <row r="213" spans="1:40">
+    <row r="213" spans="1:38">
       <c r="A213" s="1">
         <v>0</v>
       </c>
       <c r="B213" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C213">
         <v>105</v>
@@ -26536,19 +25258,13 @@
       <c r="AL213">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM213">
-        <v>7.5</v>
-      </c>
-      <c r="AN213">
-        <v>0</v>
-      </c>
     </row>
-    <row r="214" spans="1:40">
+    <row r="214" spans="1:38">
       <c r="A214" s="1">
         <v>0</v>
       </c>
       <c r="B214" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C214">
         <v>105</v>
@@ -26658,19 +25374,13 @@
       <c r="AL214">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM214">
-        <v>7.5</v>
-      </c>
-      <c r="AN214">
-        <v>0</v>
-      </c>
     </row>
-    <row r="215" spans="1:40">
+    <row r="215" spans="1:38">
       <c r="A215" s="1">
         <v>0</v>
       </c>
       <c r="B215" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C215">
         <v>105</v>
@@ -26780,19 +25490,13 @@
       <c r="AL215">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM215">
-        <v>7.5</v>
-      </c>
-      <c r="AN215">
-        <v>0</v>
-      </c>
     </row>
-    <row r="216" spans="1:40">
+    <row r="216" spans="1:38">
       <c r="A216" s="1">
         <v>0</v>
       </c>
       <c r="B216" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C216">
         <v>105</v>
@@ -26902,19 +25606,13 @@
       <c r="AL216">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM216">
-        <v>7.5</v>
-      </c>
-      <c r="AN216">
-        <v>0</v>
-      </c>
     </row>
-    <row r="217" spans="1:40">
+    <row r="217" spans="1:38">
       <c r="A217" s="1">
         <v>0</v>
       </c>
       <c r="B217" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C217">
         <v>105</v>
@@ -27024,19 +25722,13 @@
       <c r="AL217">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM217">
-        <v>7.5</v>
-      </c>
-      <c r="AN217">
-        <v>0</v>
-      </c>
     </row>
-    <row r="218" spans="1:40">
+    <row r="218" spans="1:38">
       <c r="A218" s="1">
         <v>0</v>
       </c>
       <c r="B218" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C218">
         <v>105</v>
@@ -27146,19 +25838,13 @@
       <c r="AL218">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM218">
-        <v>7.5</v>
-      </c>
-      <c r="AN218">
-        <v>0</v>
-      </c>
     </row>
-    <row r="219" spans="1:40">
+    <row r="219" spans="1:38">
       <c r="A219" s="1">
         <v>0</v>
       </c>
       <c r="B219" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C219">
         <v>105</v>
@@ -27268,19 +25954,13 @@
       <c r="AL219">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM219">
-        <v>7.5</v>
-      </c>
-      <c r="AN219">
-        <v>0</v>
-      </c>
     </row>
-    <row r="220" spans="1:40">
+    <row r="220" spans="1:38">
       <c r="A220" s="1">
         <v>0</v>
       </c>
       <c r="B220" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C220">
         <v>105</v>
@@ -27390,19 +26070,13 @@
       <c r="AL220">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM220">
-        <v>7.5</v>
-      </c>
-      <c r="AN220">
-        <v>0</v>
-      </c>
     </row>
-    <row r="221" spans="1:40">
+    <row r="221" spans="1:38">
       <c r="A221" s="1">
         <v>0</v>
       </c>
       <c r="B221" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C221">
         <v>105</v>
@@ -27512,19 +26186,13 @@
       <c r="AL221">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM221">
-        <v>7.5</v>
-      </c>
-      <c r="AN221">
-        <v>0</v>
-      </c>
     </row>
-    <row r="222" spans="1:40">
+    <row r="222" spans="1:38">
       <c r="A222" s="1">
         <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C222">
         <v>105</v>
@@ -27634,19 +26302,13 @@
       <c r="AL222">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM222">
-        <v>7.5</v>
-      </c>
-      <c r="AN222">
-        <v>0</v>
-      </c>
     </row>
-    <row r="223" spans="1:40">
+    <row r="223" spans="1:38">
       <c r="A223" s="1">
         <v>0</v>
       </c>
       <c r="B223" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C223">
         <v>105</v>
@@ -27756,19 +26418,13 @@
       <c r="AL223">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM223">
-        <v>7.5</v>
-      </c>
-      <c r="AN223">
-        <v>0</v>
-      </c>
     </row>
-    <row r="224" spans="1:40">
+    <row r="224" spans="1:38">
       <c r="A224" s="1">
         <v>0</v>
       </c>
       <c r="B224" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C224">
         <v>105</v>
@@ -27878,19 +26534,13 @@
       <c r="AL224">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM224">
-        <v>7.5</v>
-      </c>
-      <c r="AN224">
-        <v>0</v>
-      </c>
     </row>
-    <row r="225" spans="1:40">
+    <row r="225" spans="1:38">
       <c r="A225" s="1">
         <v>0</v>
       </c>
       <c r="B225" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C225">
         <v>105</v>
@@ -28000,19 +26650,13 @@
       <c r="AL225">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM225">
-        <v>7.5</v>
-      </c>
-      <c r="AN225">
-        <v>0</v>
-      </c>
     </row>
-    <row r="226" spans="1:40">
+    <row r="226" spans="1:38">
       <c r="A226" s="1">
         <v>0</v>
       </c>
       <c r="B226" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C226">
         <v>105</v>
@@ -28122,19 +26766,13 @@
       <c r="AL226">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM226">
-        <v>7.5</v>
-      </c>
-      <c r="AN226">
-        <v>0</v>
-      </c>
     </row>
-    <row r="227" spans="1:40">
+    <row r="227" spans="1:38">
       <c r="A227" s="1">
         <v>0</v>
       </c>
       <c r="B227" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C227">
         <v>105</v>
@@ -28244,19 +26882,13 @@
       <c r="AL227">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM227">
-        <v>7.5</v>
-      </c>
-      <c r="AN227">
-        <v>0</v>
-      </c>
     </row>
-    <row r="228" spans="1:40">
+    <row r="228" spans="1:38">
       <c r="A228" s="1">
         <v>0</v>
       </c>
       <c r="B228" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C228">
         <v>105</v>
@@ -28366,19 +26998,13 @@
       <c r="AL228">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM228">
-        <v>7.5</v>
-      </c>
-      <c r="AN228">
-        <v>0</v>
-      </c>
     </row>
-    <row r="229" spans="1:40">
+    <row r="229" spans="1:38">
       <c r="A229" s="1">
         <v>0</v>
       </c>
       <c r="B229" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C229">
         <v>65</v>
@@ -28488,19 +27114,13 @@
       <c r="AL229">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM229">
-        <v>7.2</v>
-      </c>
-      <c r="AN229">
-        <v>0</v>
-      </c>
     </row>
-    <row r="230" spans="1:40">
+    <row r="230" spans="1:38">
       <c r="A230" s="1">
         <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C230">
         <v>65</v>
@@ -28610,19 +27230,13 @@
       <c r="AL230">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM230">
-        <v>7.2</v>
-      </c>
-      <c r="AN230">
-        <v>0</v>
-      </c>
     </row>
-    <row r="231" spans="1:40">
+    <row r="231" spans="1:38">
       <c r="A231" s="1">
         <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C231">
         <v>65</v>
@@ -28732,19 +27346,13 @@
       <c r="AL231">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM231">
-        <v>7.2</v>
-      </c>
-      <c r="AN231">
-        <v>0</v>
-      </c>
     </row>
-    <row r="232" spans="1:40">
+    <row r="232" spans="1:38">
       <c r="A232" s="1">
         <v>0</v>
       </c>
       <c r="B232" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C232">
         <v>65</v>
@@ -28854,19 +27462,13 @@
       <c r="AL232">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM232">
-        <v>7.2</v>
-      </c>
-      <c r="AN232">
-        <v>0</v>
-      </c>
     </row>
-    <row r="233" spans="1:40">
+    <row r="233" spans="1:38">
       <c r="A233" s="1">
         <v>0</v>
       </c>
       <c r="B233" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C233">
         <v>65</v>
@@ -28976,19 +27578,13 @@
       <c r="AL233">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM233">
-        <v>7.2</v>
-      </c>
-      <c r="AN233">
-        <v>0</v>
-      </c>
     </row>
-    <row r="234" spans="1:40">
+    <row r="234" spans="1:38">
       <c r="A234" s="1">
         <v>0</v>
       </c>
       <c r="B234" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C234">
         <v>65</v>
@@ -29098,19 +27694,13 @@
       <c r="AL234">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM234">
-        <v>7.2</v>
-      </c>
-      <c r="AN234">
-        <v>0</v>
-      </c>
     </row>
-    <row r="235" spans="1:40">
+    <row r="235" spans="1:38">
       <c r="A235" s="1">
         <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C235">
         <v>65</v>
@@ -29220,19 +27810,13 @@
       <c r="AL235">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM235">
-        <v>7.2</v>
-      </c>
-      <c r="AN235">
-        <v>0</v>
-      </c>
     </row>
-    <row r="236" spans="1:40">
+    <row r="236" spans="1:38">
       <c r="A236" s="1">
         <v>0</v>
       </c>
       <c r="B236" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C236">
         <v>65</v>
@@ -29342,19 +27926,13 @@
       <c r="AL236">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM236">
-        <v>7.2</v>
-      </c>
-      <c r="AN236">
-        <v>0</v>
-      </c>
     </row>
-    <row r="237" spans="1:40">
+    <row r="237" spans="1:38">
       <c r="A237" s="1">
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C237">
         <v>65</v>
@@ -29464,19 +28042,13 @@
       <c r="AL237">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM237">
-        <v>7.2</v>
-      </c>
-      <c r="AN237">
-        <v>0</v>
-      </c>
     </row>
-    <row r="238" spans="1:40">
+    <row r="238" spans="1:38">
       <c r="A238" s="1">
         <v>0</v>
       </c>
       <c r="B238" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C238">
         <v>65</v>
@@ -29586,19 +28158,13 @@
       <c r="AL238">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM238">
-        <v>7.2</v>
-      </c>
-      <c r="AN238">
-        <v>0</v>
-      </c>
     </row>
-    <row r="239" spans="1:40">
+    <row r="239" spans="1:38">
       <c r="A239" s="1">
         <v>0</v>
       </c>
       <c r="B239" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C239">
         <v>65</v>
@@ -29708,19 +28274,13 @@
       <c r="AL239">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM239">
-        <v>7.2</v>
-      </c>
-      <c r="AN239">
-        <v>0</v>
-      </c>
     </row>
-    <row r="240" spans="1:40">
+    <row r="240" spans="1:38">
       <c r="A240" s="1">
         <v>0</v>
       </c>
       <c r="B240" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C240">
         <v>65</v>
@@ -29830,19 +28390,13 @@
       <c r="AL240">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM240">
-        <v>7.2</v>
-      </c>
-      <c r="AN240">
-        <v>0</v>
-      </c>
     </row>
-    <row r="241" spans="1:40">
+    <row r="241" spans="1:38">
       <c r="A241" s="1">
         <v>0</v>
       </c>
       <c r="B241" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C241">
         <v>65</v>
@@ -29952,19 +28506,13 @@
       <c r="AL241">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM241">
-        <v>7.2</v>
-      </c>
-      <c r="AN241">
-        <v>0</v>
-      </c>
     </row>
-    <row r="242" spans="1:40">
+    <row r="242" spans="1:38">
       <c r="A242" s="1">
         <v>0</v>
       </c>
       <c r="B242" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C242">
         <v>65</v>
@@ -30074,19 +28622,13 @@
       <c r="AL242">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM242">
-        <v>7.2</v>
-      </c>
-      <c r="AN242">
-        <v>0</v>
-      </c>
     </row>
-    <row r="243" spans="1:40">
+    <row r="243" spans="1:38">
       <c r="A243" s="1">
         <v>0</v>
       </c>
       <c r="B243" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C243">
         <v>65</v>
@@ -30196,19 +28738,13 @@
       <c r="AL243">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM243">
-        <v>7.2</v>
-      </c>
-      <c r="AN243">
-        <v>0</v>
-      </c>
     </row>
-    <row r="244" spans="1:40">
+    <row r="244" spans="1:38">
       <c r="A244" s="1">
         <v>0</v>
       </c>
       <c r="B244" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C244">
         <v>65</v>
@@ -30318,19 +28854,13 @@
       <c r="AL244">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM244">
-        <v>7.2</v>
-      </c>
-      <c r="AN244">
-        <v>0</v>
-      </c>
     </row>
-    <row r="245" spans="1:40">
+    <row r="245" spans="1:38">
       <c r="A245" s="1">
         <v>0</v>
       </c>
       <c r="B245" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C245">
         <v>65</v>
@@ -30440,19 +28970,13 @@
       <c r="AL245">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM245">
-        <v>7.2</v>
-      </c>
-      <c r="AN245">
-        <v>0</v>
-      </c>
     </row>
-    <row r="246" spans="1:40">
+    <row r="246" spans="1:38">
       <c r="A246" s="1">
         <v>0</v>
       </c>
       <c r="B246" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C246">
         <v>65</v>
@@ -30562,19 +29086,13 @@
       <c r="AL246">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM246">
-        <v>7.2</v>
-      </c>
-      <c r="AN246">
-        <v>0</v>
-      </c>
     </row>
-    <row r="247" spans="1:40">
+    <row r="247" spans="1:38">
       <c r="A247" s="1">
         <v>0</v>
       </c>
       <c r="B247" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C247">
         <v>65</v>
@@ -30684,19 +29202,13 @@
       <c r="AL247">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM247">
-        <v>7.2</v>
-      </c>
-      <c r="AN247">
-        <v>0</v>
-      </c>
     </row>
-    <row r="248" spans="1:40">
+    <row r="248" spans="1:38">
       <c r="A248" s="1">
         <v>0</v>
       </c>
       <c r="B248" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C248">
         <v>65</v>
@@ -30806,19 +29318,13 @@
       <c r="AL248">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM248">
-        <v>7.2</v>
-      </c>
-      <c r="AN248">
-        <v>0</v>
-      </c>
     </row>
-    <row r="249" spans="1:40">
+    <row r="249" spans="1:38">
       <c r="A249" s="1">
         <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C249">
         <v>141</v>
@@ -30928,19 +29434,13 @@
       <c r="AL249">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM249">
-        <v>8.6</v>
-      </c>
-      <c r="AN249">
-        <v>0</v>
-      </c>
     </row>
-    <row r="250" spans="1:40">
+    <row r="250" spans="1:38">
       <c r="A250" s="1">
         <v>0</v>
       </c>
       <c r="B250" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C250">
         <v>141</v>
@@ -31050,19 +29550,13 @@
       <c r="AL250">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM250">
-        <v>8.6</v>
-      </c>
-      <c r="AN250">
-        <v>0</v>
-      </c>
     </row>
-    <row r="251" spans="1:40">
+    <row r="251" spans="1:38">
       <c r="A251" s="1">
         <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C251">
         <v>141</v>
@@ -31172,19 +29666,13 @@
       <c r="AL251">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM251">
-        <v>8.6</v>
-      </c>
-      <c r="AN251">
-        <v>0</v>
-      </c>
     </row>
-    <row r="252" spans="1:40">
+    <row r="252" spans="1:38">
       <c r="A252" s="1">
         <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C252">
         <v>141</v>
@@ -31294,19 +29782,13 @@
       <c r="AL252">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM252">
-        <v>8.6</v>
-      </c>
-      <c r="AN252">
-        <v>0</v>
-      </c>
     </row>
-    <row r="253" spans="1:40">
+    <row r="253" spans="1:38">
       <c r="A253" s="1">
         <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C253">
         <v>141</v>
@@ -31416,19 +29898,13 @@
       <c r="AL253">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM253">
-        <v>8.6</v>
-      </c>
-      <c r="AN253">
-        <v>0</v>
-      </c>
     </row>
-    <row r="254" spans="1:40">
+    <row r="254" spans="1:38">
       <c r="A254" s="1">
         <v>0</v>
       </c>
       <c r="B254" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C254">
         <v>141</v>
@@ -31538,19 +30014,13 @@
       <c r="AL254">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM254">
-        <v>8.6</v>
-      </c>
-      <c r="AN254">
-        <v>0</v>
-      </c>
     </row>
-    <row r="255" spans="1:40">
+    <row r="255" spans="1:38">
       <c r="A255" s="1">
         <v>0</v>
       </c>
       <c r="B255" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C255">
         <v>141</v>
@@ -31660,19 +30130,13 @@
       <c r="AL255">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM255">
-        <v>8.6</v>
-      </c>
-      <c r="AN255">
-        <v>0</v>
-      </c>
     </row>
-    <row r="256" spans="1:40">
+    <row r="256" spans="1:38">
       <c r="A256" s="1">
         <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C256">
         <v>141</v>
@@ -31782,19 +30246,13 @@
       <c r="AL256">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM256">
-        <v>8.6</v>
-      </c>
-      <c r="AN256">
-        <v>0</v>
-      </c>
     </row>
-    <row r="257" spans="1:40">
+    <row r="257" spans="1:38">
       <c r="A257" s="1">
         <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C257">
         <v>141</v>
@@ -31904,19 +30362,13 @@
       <c r="AL257">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM257">
-        <v>8.6</v>
-      </c>
-      <c r="AN257">
-        <v>0</v>
-      </c>
     </row>
-    <row r="258" spans="1:40">
+    <row r="258" spans="1:38">
       <c r="A258" s="1">
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C258">
         <v>141</v>
@@ -32026,19 +30478,13 @@
       <c r="AL258">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM258">
-        <v>8.6</v>
-      </c>
-      <c r="AN258">
-        <v>0</v>
-      </c>
     </row>
-    <row r="259" spans="1:40">
+    <row r="259" spans="1:38">
       <c r="A259" s="1">
         <v>0</v>
       </c>
       <c r="B259" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C259">
         <v>112</v>
@@ -32148,19 +30594,13 @@
       <c r="AL259">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM259">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN259">
-        <v>0</v>
-      </c>
     </row>
-    <row r="260" spans="1:40">
+    <row r="260" spans="1:38">
       <c r="A260" s="1">
         <v>0</v>
       </c>
       <c r="B260" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C260">
         <v>112</v>
@@ -32270,19 +30710,13 @@
       <c r="AL260">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM260">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN260">
-        <v>0</v>
-      </c>
     </row>
-    <row r="261" spans="1:40">
+    <row r="261" spans="1:38">
       <c r="A261" s="1">
         <v>0</v>
       </c>
       <c r="B261" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C261">
         <v>112</v>
@@ -32392,19 +30826,13 @@
       <c r="AL261">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM261">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN261">
-        <v>0</v>
-      </c>
     </row>
-    <row r="262" spans="1:40">
+    <row r="262" spans="1:38">
       <c r="A262" s="1">
         <v>0</v>
       </c>
       <c r="B262" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C262">
         <v>112</v>
@@ -32514,19 +30942,13 @@
       <c r="AL262">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM262">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN262">
-        <v>0</v>
-      </c>
     </row>
-    <row r="263" spans="1:40">
+    <row r="263" spans="1:38">
       <c r="A263" s="1">
         <v>0</v>
       </c>
       <c r="B263" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C263">
         <v>112</v>
@@ -32636,19 +31058,13 @@
       <c r="AL263">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM263">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN263">
-        <v>0</v>
-      </c>
     </row>
-    <row r="264" spans="1:40">
+    <row r="264" spans="1:38">
       <c r="A264" s="1">
         <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C264">
         <v>112</v>
@@ -32758,19 +31174,13 @@
       <c r="AL264">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM264">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN264">
-        <v>0</v>
-      </c>
     </row>
-    <row r="265" spans="1:40">
+    <row r="265" spans="1:38">
       <c r="A265" s="1">
         <v>0</v>
       </c>
       <c r="B265" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C265">
         <v>112</v>
@@ -32880,19 +31290,13 @@
       <c r="AL265">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM265">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN265">
-        <v>0</v>
-      </c>
     </row>
-    <row r="266" spans="1:40">
+    <row r="266" spans="1:38">
       <c r="A266" s="1">
         <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C266">
         <v>112</v>
@@ -33002,19 +31406,13 @@
       <c r="AL266">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM266">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN266">
-        <v>0</v>
-      </c>
     </row>
-    <row r="267" spans="1:40">
+    <row r="267" spans="1:38">
       <c r="A267" s="1">
         <v>0</v>
       </c>
       <c r="B267" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C267">
         <v>112</v>
@@ -33124,19 +31522,13 @@
       <c r="AL267">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM267">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN267">
-        <v>0</v>
-      </c>
     </row>
-    <row r="268" spans="1:40">
+    <row r="268" spans="1:38">
       <c r="A268" s="1">
         <v>0</v>
       </c>
       <c r="B268" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C268">
         <v>112</v>
@@ -33246,19 +31638,13 @@
       <c r="AL268">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM268">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN268">
-        <v>0</v>
-      </c>
     </row>
-    <row r="269" spans="1:40">
+    <row r="269" spans="1:38">
       <c r="A269" s="1">
         <v>0</v>
       </c>
       <c r="B269" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C269">
         <v>112</v>
@@ -33368,19 +31754,13 @@
       <c r="AL269">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM269">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN269">
-        <v>0</v>
-      </c>
     </row>
-    <row r="270" spans="1:40">
+    <row r="270" spans="1:38">
       <c r="A270" s="1">
         <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C270">
         <v>112</v>
@@ -33490,19 +31870,13 @@
       <c r="AL270">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM270">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN270">
-        <v>0</v>
-      </c>
     </row>
-    <row r="271" spans="1:40">
+    <row r="271" spans="1:38">
       <c r="A271" s="1">
         <v>0</v>
       </c>
       <c r="B271" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C271">
         <v>112</v>
@@ -33612,19 +31986,13 @@
       <c r="AL271">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM271">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN271">
-        <v>0</v>
-      </c>
     </row>
-    <row r="272" spans="1:40">
+    <row r="272" spans="1:38">
       <c r="A272" s="1">
         <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C272">
         <v>112</v>
@@ -33734,19 +32102,13 @@
       <c r="AL272">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM272">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN272">
-        <v>0</v>
-      </c>
     </row>
-    <row r="273" spans="1:40">
+    <row r="273" spans="1:38">
       <c r="A273" s="1">
         <v>0</v>
       </c>
       <c r="B273" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C273">
         <v>112</v>
@@ -33856,19 +32218,13 @@
       <c r="AL273">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM273">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN273">
-        <v>0</v>
-      </c>
     </row>
-    <row r="274" spans="1:40">
+    <row r="274" spans="1:38">
       <c r="A274" s="1">
         <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C274">
         <v>112</v>
@@ -33978,19 +32334,13 @@
       <c r="AL274">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM274">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN274">
-        <v>0</v>
-      </c>
     </row>
-    <row r="275" spans="1:40">
+    <row r="275" spans="1:38">
       <c r="A275" s="1">
         <v>0</v>
       </c>
       <c r="B275" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C275">
         <v>112</v>
@@ -34100,19 +32450,13 @@
       <c r="AL275">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM275">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN275">
-        <v>0</v>
-      </c>
     </row>
-    <row r="276" spans="1:40">
+    <row r="276" spans="1:38">
       <c r="A276" s="1">
         <v>0</v>
       </c>
       <c r="B276" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C276">
         <v>112</v>
@@ -34222,19 +32566,13 @@
       <c r="AL276">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM276">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN276">
-        <v>0</v>
-      </c>
     </row>
-    <row r="277" spans="1:40">
+    <row r="277" spans="1:38">
       <c r="A277" s="1">
         <v>0</v>
       </c>
       <c r="B277" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C277">
         <v>194</v>
@@ -34344,19 +32682,13 @@
       <c r="AL277">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM277">
-        <v>7.6</v>
-      </c>
-      <c r="AN277">
-        <v>0</v>
-      </c>
     </row>
-    <row r="278" spans="1:40">
+    <row r="278" spans="1:38">
       <c r="A278" s="1">
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C278">
         <v>194</v>
@@ -34466,19 +32798,13 @@
       <c r="AL278">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM278">
-        <v>7.6</v>
-      </c>
-      <c r="AN278">
-        <v>0</v>
-      </c>
     </row>
-    <row r="279" spans="1:40">
+    <row r="279" spans="1:38">
       <c r="A279" s="1">
         <v>0</v>
       </c>
       <c r="B279" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C279">
         <v>194</v>
@@ -34588,19 +32914,13 @@
       <c r="AL279">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM279">
-        <v>7.6</v>
-      </c>
-      <c r="AN279">
-        <v>0</v>
-      </c>
     </row>
-    <row r="280" spans="1:40">
+    <row r="280" spans="1:38">
       <c r="A280" s="1">
         <v>0</v>
       </c>
       <c r="B280" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C280">
         <v>194</v>
@@ -34710,19 +33030,13 @@
       <c r="AL280">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM280">
-        <v>7.6</v>
-      </c>
-      <c r="AN280">
-        <v>0</v>
-      </c>
     </row>
-    <row r="281" spans="1:40">
+    <row r="281" spans="1:38">
       <c r="A281" s="1">
         <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C281">
         <v>194</v>
@@ -34832,19 +33146,13 @@
       <c r="AL281">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM281">
-        <v>7.6</v>
-      </c>
-      <c r="AN281">
-        <v>0</v>
-      </c>
     </row>
-    <row r="282" spans="1:40">
+    <row r="282" spans="1:38">
       <c r="A282" s="1">
         <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C282">
         <v>194</v>
@@ -34954,19 +33262,13 @@
       <c r="AL282">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM282">
-        <v>7.6</v>
-      </c>
-      <c r="AN282">
-        <v>0</v>
-      </c>
     </row>
-    <row r="283" spans="1:40">
+    <row r="283" spans="1:38">
       <c r="A283" s="1">
         <v>0</v>
       </c>
       <c r="B283" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C283">
         <v>194</v>
@@ -35076,19 +33378,13 @@
       <c r="AL283">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM283">
-        <v>7.6</v>
-      </c>
-      <c r="AN283">
-        <v>0</v>
-      </c>
     </row>
-    <row r="284" spans="1:40">
+    <row r="284" spans="1:38">
       <c r="A284" s="1">
         <v>0</v>
       </c>
       <c r="B284" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C284">
         <v>194</v>
@@ -35198,19 +33494,13 @@
       <c r="AL284">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM284">
-        <v>7.6</v>
-      </c>
-      <c r="AN284">
-        <v>0</v>
-      </c>
     </row>
-    <row r="285" spans="1:40">
+    <row r="285" spans="1:38">
       <c r="A285" s="1">
         <v>0</v>
       </c>
       <c r="B285" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C285">
         <v>194</v>
@@ -35320,19 +33610,13 @@
       <c r="AL285">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM285">
-        <v>7.6</v>
-      </c>
-      <c r="AN285">
-        <v>0</v>
-      </c>
     </row>
-    <row r="286" spans="1:40">
+    <row r="286" spans="1:38">
       <c r="A286" s="1">
         <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C286">
         <v>194</v>
@@ -35442,19 +33726,13 @@
       <c r="AL286">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM286">
-        <v>7.6</v>
-      </c>
-      <c r="AN286">
-        <v>0</v>
-      </c>
     </row>
-    <row r="287" spans="1:40">
+    <row r="287" spans="1:38">
       <c r="A287" s="1">
         <v>0</v>
       </c>
       <c r="B287" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C287">
         <v>194</v>
@@ -35564,19 +33842,13 @@
       <c r="AL287">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM287">
-        <v>7.6</v>
-      </c>
-      <c r="AN287">
-        <v>0</v>
-      </c>
     </row>
-    <row r="288" spans="1:40">
+    <row r="288" spans="1:38">
       <c r="A288" s="1">
         <v>0</v>
       </c>
       <c r="B288" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C288">
         <v>194</v>
@@ -35686,19 +33958,13 @@
       <c r="AL288">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM288">
-        <v>7.6</v>
-      </c>
-      <c r="AN288">
-        <v>0</v>
-      </c>
     </row>
-    <row r="289" spans="1:40">
+    <row r="289" spans="1:38">
       <c r="A289" s="1">
         <v>0</v>
       </c>
       <c r="B289" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C289">
         <v>194</v>
@@ -35808,19 +34074,13 @@
       <c r="AL289">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM289">
-        <v>7.6</v>
-      </c>
-      <c r="AN289">
-        <v>0</v>
-      </c>
     </row>
-    <row r="290" spans="1:40">
+    <row r="290" spans="1:38">
       <c r="A290" s="1">
         <v>0</v>
       </c>
       <c r="B290" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C290">
         <v>194</v>
@@ -35930,19 +34190,13 @@
       <c r="AL290">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM290">
-        <v>7.6</v>
-      </c>
-      <c r="AN290">
-        <v>0</v>
-      </c>
     </row>
-    <row r="291" spans="1:40">
+    <row r="291" spans="1:38">
       <c r="A291" s="1">
         <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C291">
         <v>194</v>
@@ -36052,19 +34306,13 @@
       <c r="AL291">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM291">
-        <v>7.6</v>
-      </c>
-      <c r="AN291">
-        <v>0</v>
-      </c>
     </row>
-    <row r="292" spans="1:40">
+    <row r="292" spans="1:38">
       <c r="A292" s="1">
         <v>0</v>
       </c>
       <c r="B292" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C292">
         <v>194</v>
@@ -36174,19 +34422,13 @@
       <c r="AL292">
         <v>0.003333333333333334</v>
       </c>
-      <c r="AM292">
-        <v>7.6</v>
-      </c>
-      <c r="AN292">
-        <v>0</v>
-      </c>
     </row>
-    <row r="293" spans="1:40">
+    <row r="293" spans="1:38">
       <c r="A293" s="1">
         <v>0</v>
       </c>
       <c r="B293" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C293">
         <v>194</v>
@@ -36295,12 +34537,6 @@
       </c>
       <c r="AL293">
         <v>0.005</v>
-      </c>
-      <c r="AM293">
-        <v>7.6</v>
-      </c>
-      <c r="AN293">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
